--- a/data/trans_camb/P1805_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1805_2016_2023-Dificultad-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>4.185103204142718</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8814735745955683</v>
+        <v>0.881473574595567</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2.416356882475203</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.703425028298063</v>
+        <v>1.775394533972527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.18470710399421</v>
+        <v>-1.00262649511539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7208876956358525</v>
+        <v>0.9311960580506465</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.10246334387109</v>
+        <v>7.386354289326849</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.724221233999747</v>
+        <v>2.881852480593129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.127606510179318</v>
+        <v>4.127493915821068</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>1.807985862635278</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1877388738167613</v>
+        <v>0.187738873816761</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.6767398978155589</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5217641086867849</v>
+        <v>0.5921527362322114</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2086944235756596</v>
+        <v>-0.1805760945343846</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1694816926000309</v>
+        <v>0.212690255867838</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.840986313628018</v>
+        <v>3.898556598320326</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6956972029552757</v>
+        <v>0.7710008066600406</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.326354274576719</v>
+        <v>1.37073228729638</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.069651193810408</v>
+        <v>1.069651193810409</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-0.05001027089952537</v>
+        <v>-0.05001027089952467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4945833735930459</v>
+        <v>0.4945833735930455</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2750213916051247</v>
+        <v>-0.3351362115724909</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.792802703687085</v>
+        <v>-1.690190380985519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6372185815140483</v>
+        <v>-0.5085830756647209</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.860088030990854</v>
+        <v>2.83640347114139</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.450135696267473</v>
+        <v>1.523207676255753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.651921222538303</v>
+        <v>1.670580685917119</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.7397482364221852</v>
+        <v>0.7397482364221857</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.01361415059704285</v>
+        <v>-0.01361415059704266</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1890271467324216</v>
+        <v>0.1890271467324214</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.208524529272478</v>
+        <v>-0.1928238376660009</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3967767796291886</v>
+        <v>-0.3666872536377316</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1980054306611841</v>
+        <v>-0.1820428902541996</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.181701068678553</v>
+        <v>3.111294015030347</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5610951230842766</v>
+        <v>0.5649531416182305</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.798210358344575</v>
+        <v>0.8169797713088571</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>1.676149656819675</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6330809876402517</v>
+        <v>0.6330809876402527</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.869071517685932</v>
+        <v>-1.848410099064104</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3716403874370594</v>
+        <v>-0.05744044660126523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5064539694639386</v>
+        <v>-0.4467971101743686</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7210657564393606</v>
+        <v>0.7325374755084663</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.369154192898062</v>
+        <v>3.541187892291035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.675075671636509</v>
+        <v>1.703332094838215</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>0.66034049637551</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2734132251866239</v>
+        <v>0.2734132251866243</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6199108915150379</v>
+        <v>-0.6270093134451337</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1091844273561164</v>
+        <v>-0.04796305212074229</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1822110411012775</v>
+        <v>-0.1701505226223045</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.557002468295118</v>
+        <v>0.578963551181881</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.947876402711554</v>
+        <v>2.138512088617678</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9200781608295453</v>
+        <v>0.9706988462609256</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>2.731672460187684</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9781612144342922</v>
+        <v>0.9781612144342908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.868457405472583</v>
+        <v>1.868457405472582</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.191141321984387</v>
+        <v>1.156083381698793</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9288016937621472</v>
+        <v>-1.085206442903087</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6694156669247242</v>
+        <v>0.6931705050331599</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.567492074170472</v>
+        <v>4.536155368053193</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.578589470854276</v>
+        <v>2.588432573750541</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.279124420215851</v>
+        <v>3.119527058156702</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>3.106731932001858</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3511908084802821</v>
+        <v>0.3511908084802816</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.028880633943302</v>
+        <v>1.028880633943301</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.360365956775159</v>
+        <v>0.4775466904067223</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2597976675501169</v>
+        <v>-0.2589580507456809</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1988355832043542</v>
+        <v>0.2217382719790417</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16.2386083410916</v>
+        <v>15.99459350320508</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.473673976070186</v>
+        <v>1.53901309514119</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.715975586334701</v>
+        <v>2.61498182639684</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>0.4881060346528459</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9023536107167645</v>
+        <v>0.9023536107167652</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5149590463848287</v>
+        <v>0.441864269135712</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3846427192682951</v>
+        <v>-0.4179464955752694</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2952832829947465</v>
+        <v>0.3116239023305278</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.247418908438972</v>
+        <v>2.167945440583833</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.35293464806709</v>
+        <v>1.378092632809986</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.546667033049242</v>
+        <v>1.505153694462662</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.7330006961206176</v>
+        <v>0.7330006961206172</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.1331131556792229</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3267528866992853</v>
+        <v>0.3267528866992856</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2262233256078497</v>
+        <v>0.1905736927827814</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08833266725112894</v>
+        <v>-0.09950043600880384</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.08428763297327251</v>
+        <v>0.0937743949776374</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.451710503727377</v>
+        <v>1.433850235046604</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4337473795045992</v>
+        <v>0.4483837638388724</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6122014017387506</v>
+        <v>0.5925860803135001</v>
       </c>
     </row>
     <row r="34">
